--- a/Water sort Puzzle_Test Case.xlsx
+++ b/Water sort Puzzle_Test Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C591BA27-B734-4DC4-9F18-0F3CB245E30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD568FB0-5702-4C91-8553-20B95C6A35B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +522,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -531,41 +549,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +864,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -888,7 +873,7 @@
     <col min="1" max="1" width="1.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="80.69921875" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.69921875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.69921875" style="1"/>
@@ -948,11 +933,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -964,7 +949,7 @@
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
@@ -974,7 +959,7 @@
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
@@ -984,7 +969,7 @@
       <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
@@ -994,7 +979,7 @@
       <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1004,7 +989,7 @@
       <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
@@ -1014,7 +999,7 @@
       <c r="B14" s="5">
         <v>7</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1026,17 +1011,17 @@
       <c r="B15" s="5">
         <v>8</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>9</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
@@ -1046,17 +1031,17 @@
       <c r="B17" s="5">
         <v>10</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>11</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1051,7 @@
       <c r="B19" s="5">
         <v>12</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
@@ -1076,37 +1061,37 @@
       <c r="B20" s="5">
         <v>13</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
         <v>14</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="5">
         <v>15</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="5">
         <v>16</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="7" t="s">
         <v>55</v>
       </c>
@@ -1116,7 +1101,7 @@
       <c r="B24" s="5">
         <v>17</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1124,51 +1109,51 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="5">
         <v>18</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="5">
         <v>19</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="5">
         <v>20</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="5">
         <v>21</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="2:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="5">
         <v>22</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="7" t="s">
         <v>39</v>
       </c>
@@ -1178,7 +1163,7 @@
       <c r="B30" s="5">
         <v>23</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="7" t="s">
         <v>41</v>
       </c>
@@ -1188,7 +1173,7 @@
       <c r="B31" s="5">
         <v>24</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="7" t="s">
         <v>42</v>
       </c>
@@ -1198,17 +1183,17 @@
       <c r="B32" s="5">
         <v>25</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="5">
         <v>26</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="7" t="s">
         <v>56</v>
       </c>
@@ -1218,27 +1203,27 @@
       <c r="B34" s="5">
         <v>27</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="5">
         <v>28</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="5">
         <v>29</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="7" t="s">
         <v>50</v>
       </c>
@@ -1248,7 +1233,7 @@
       <c r="B37" s="5">
         <v>30</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="7" t="s">
         <v>51</v>
       </c>
@@ -1258,7 +1243,7 @@
       <c r="B38" s="5">
         <v>31</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="7" t="s">
         <v>52</v>
       </c>
@@ -1268,7 +1253,7 @@
       <c r="B39" s="5">
         <v>32</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="7" t="s">
         <v>62</v>
       </c>
@@ -1278,7 +1263,7 @@
       <c r="B40" s="5">
         <v>33</v>
       </c>
-      <c r="C40" s="28"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="7" t="s">
         <v>63</v>
       </c>
@@ -1288,7 +1273,7 @@
       <c r="B41" s="5">
         <v>34</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -1300,7 +1285,7 @@
       <c r="B42" s="5">
         <v>35</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="7" t="s">
         <v>45</v>
       </c>
@@ -1310,17 +1295,17 @@
       <c r="B43" s="5">
         <v>36</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="5">
         <v>37</v>
       </c>
-      <c r="C44" s="28"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="7" t="s">
         <v>47</v>
       </c>
@@ -1330,7 +1315,7 @@
       <c r="B45" s="5">
         <v>38</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="32" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -1342,7 +1327,7 @@
       <c r="B46" s="5">
         <v>39</v>
       </c>
-      <c r="C46" s="27"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="7" t="s">
         <v>59</v>
       </c>
@@ -1352,7 +1337,7 @@
       <c r="B47" s="5">
         <v>40</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="7" t="s">
         <v>58</v>
       </c>
@@ -1362,17 +1347,17 @@
       <c r="B48" s="5">
         <v>41</v>
       </c>
-      <c r="C48" s="28"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="2:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="5">
         <v>42</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="32" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -1384,17 +1369,17 @@
       <c r="B50" s="5">
         <v>43</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="2:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" s="5">
         <v>44</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="7" t="s">
         <v>32</v>
       </c>
@@ -1404,7 +1389,7 @@
       <c r="B52" s="5">
         <v>45</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="7" t="s">
         <v>33</v>
       </c>
@@ -1414,7 +1399,7 @@
       <c r="B53" s="5">
         <v>46</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="7" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1409,7 @@
       <c r="B54" s="5">
         <v>47</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="7" t="s">
         <v>35</v>
       </c>
@@ -1434,17 +1419,17 @@
       <c r="B55" s="5">
         <v>48</v>
       </c>
-      <c r="C55" s="27"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="2:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="5">
         <v>49</v>
       </c>
-      <c r="C56" s="27"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="7" t="s">
         <v>37</v>
       </c>
@@ -1477,100 +1462,92 @@
       <c r="E59" s="19"/>
     </row>
     <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="36"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="27"/>
     </row>
     <row r="62" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="31"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="9"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B63" s="31"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B64" s="31"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B65" s="31"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="40"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B66" s="31"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B67" s="31"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="40"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B68" s="31"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="34"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C64" s="35"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C65" s="35"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C66" s="35"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C67" s="35"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C68" s="20"/>
+      <c r="D68" s="26"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C69" s="20"/>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C70" s="20"/>
       <c r="D70" s="14"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C71" s="20"/>
       <c r="D71" s="14"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C72" s="20"/>
       <c r="D72" s="14"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C73" s="20"/>
       <c r="D73" s="14"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C74" s="20"/>
       <c r="D74" s="14"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C75" s="20"/>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D76" s="14"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D77" s="14"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D78" s="14"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D79" s="14"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D80" s="14"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.4">
